--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denisa\IdeaProjects\ahoo-threads-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C2D4B7D-91C4-4C17-981E-8BACC8475597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13185BA5-98BC-47DF-A994-9A5E6BC85CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B145052-2881-4B84-B7F2-561DC819E360}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{6B145052-2881-4B84-B7F2-561DC819E360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,19 +44,20 @@
     <t>Tatiana2$</t>
   </si>
   <si>
-    <t>Gmail123%</t>
-  </si>
-  <si>
     <t>valeravorobei</t>
   </si>
   <si>
     <t>1234567%%%</t>
+  </si>
+  <si>
+    <t>Gmail123%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,40 +403,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB473342-8C36-47E2-8388-4E017EB246AE}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="b" s="0">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="b" s="0">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B4" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="B5" t="b" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
